--- a/_ref/dia/types.xlsx
+++ b/_ref/dia/types.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t>Personal Vehicle</t>
+  </si>
+  <si>
+    <t>browse</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -447,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -530,6 +548,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,6 +566,437 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$33:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$33:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="209743232"/>
+        <c:axId val="209741696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="209743232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="209741696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209741696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="209743232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$16:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$16:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="223056256"/>
+        <c:axId val="223054464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="223056256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="223054464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="223054464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="223056256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195944</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q38"/>
+  <dimension ref="B2:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,6 +1655,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
+      <c r="J14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
@@ -1223,6 +1681,12 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
+      <c r="J15" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="80" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
@@ -1239,8 +1703,14 @@
       <c r="G16" s="49"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="71">
+        <v>0.62</v>
+      </c>
+      <c r="K16" s="72">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1257,8 +1727,14 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="71">
+        <v>0.67</v>
+      </c>
+      <c r="K17" s="72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1267,8 +1743,14 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="76">
+        <v>0.67</v>
+      </c>
+      <c r="K18" s="40">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1277,8 +1759,14 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="31">
+        <v>0.68</v>
+      </c>
+      <c r="K19" s="40">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="37" t="s">
         <v>8</v>
@@ -1295,8 +1783,14 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="76">
+        <v>0.67</v>
+      </c>
+      <c r="K20" s="40">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1313,8 +1807,14 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="71">
+        <v>0.44</v>
+      </c>
+      <c r="K21" s="72">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>37</v>
       </c>
@@ -1331,8 +1831,14 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="71">
+        <v>0.44</v>
+      </c>
+      <c r="K22" s="72">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>10</v>
       </c>
@@ -1349,8 +1855,14 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="76">
+        <v>0.46</v>
+      </c>
+      <c r="K23" s="40">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1879,14 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="76">
+        <v>0.42</v>
+      </c>
+      <c r="K24" s="40">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1377,8 +1895,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="76">
+        <v>0.52</v>
+      </c>
+      <c r="K25" s="40">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1387,8 +1911,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="76">
+        <v>0.68</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -1399,8 +1929,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="77">
+        <v>0.43</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1409,8 +1945,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>39</v>
       </c>
@@ -1425,8 +1963,10 @@
       <c r="G29" s="75"/>
       <c r="H29" s="75"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>40</v>
       </c>
@@ -1441,8 +1981,10 @@
       <c r="G30" s="75"/>
       <c r="H30" s="75"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>41</v>
       </c>
@@ -1459,8 +2001,12 @@
       </c>
       <c r="H31" s="74"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>42</v>
       </c>
@@ -1475,8 +2021,14 @@
       <c r="G32" s="75"/>
       <c r="H32" s="75"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
@@ -1493,8 +2045,14 @@
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="76">
+        <v>0.16</v>
+      </c>
+      <c r="K33" s="40">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
@@ -1511,8 +2069,14 @@
       </c>
       <c r="H34" s="74"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="76">
+        <v>0.7</v>
+      </c>
+      <c r="K34" s="40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>45</v>
       </c>
@@ -1529,8 +2093,14 @@
       </c>
       <c r="H35" s="74"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="76">
+        <v>0.48</v>
+      </c>
+      <c r="K35" s="40">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>46</v>
       </c>
@@ -1547,8 +2117,14 @@
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="78">
+        <v>0.48</v>
+      </c>
+      <c r="K36" s="65">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>47</v>
       </c>
@@ -1565,8 +2141,14 @@
       </c>
       <c r="H37" s="74"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="65">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
@@ -1585,6 +2167,76 @@
       </c>
       <c r="H38" s="74"/>
       <c r="I38" s="1"/>
+      <c r="J38" s="71">
+        <v>0.51</v>
+      </c>
+      <c r="K38" s="72">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J39" s="31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K39" s="33">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J40" s="31">
+        <v>0.46</v>
+      </c>
+      <c r="K40" s="33">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J41" s="78">
+        <v>0.42</v>
+      </c>
+      <c r="K41" s="65">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J42" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="K42" s="65">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J43" s="71">
+        <v>0.41</v>
+      </c>
+      <c r="K43" s="72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J44" s="31">
+        <v>0.44</v>
+      </c>
+      <c r="K44" s="33">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J45" s="34">
+        <v>0.39</v>
+      </c>
+      <c r="K45" s="59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1617,6 +2269,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="212" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1624,7 +2277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
